--- a/DataTable/Localization_Launch/A.空白模板.xlsx
+++ b/DataTable/Localization_Launch/A.空白模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="32415" windowHeight="15315"/>
+    <workbookView windowWidth="32655" windowHeight="15900"/>
   </bookViews>
   <sheets>
     <sheet name="文本" sheetId="1" r:id="rId1"/>
@@ -22,10 +22,10 @@
     <t>key</t>
   </si>
   <si>
-    <t>zh_cn</t>
+    <t>ChineseSimplified</t>
   </si>
   <si>
-    <t>en</t>
+    <t>English</t>
   </si>
   <si>
     <t>##type</t>
@@ -40,10 +40,10 @@
     <t>本地化key</t>
   </si>
   <si>
-    <t>中文文本</t>
+    <t>简体中文</t>
   </si>
   <si>
-    <t>英文文本</t>
+    <t>英语</t>
   </si>
 </sst>
 </file>
@@ -1015,7 +1015,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C1" sqref="C1:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="3"/>
